--- a/实验8：工作量估计与统计分析/项目计划工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/项目计划工作统计.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>项目计划工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,49 @@
   </si>
   <si>
     <t>耗时(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0.0.200405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1、1.2、2.2、2.3、2.4的部分内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1章增添关于艺术创作的背景
+1.2章增添术语与定义
+重写2.2项目目标、2.3产品目标与范围、2.4工作内容
+更新应交付成果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟秋宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1节内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,9 +542,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,6 +576,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,169 +869,169 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="18.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="18.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="19" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="12" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1000</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1006,132 +1049,156 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="13" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="12.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="12"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+    <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/项目计划工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/项目计划工作统计.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="项目计划工作量统计表" sheetId="1" r:id="rId1"/>
-    <sheet name="项目计划书修改记录表" sheetId="2" r:id="rId2"/>
+    <sheet name="项目计划书修改记录表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,109 +19,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:应用于最终版本项目计划书中的图表个数。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-应用于最终版本项目计划书中的字数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-项目计划结果中其他相关文档</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-参与修订的报告版本。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -237,44 +133,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>项目计划工作量统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成图表个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成报告字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成相关文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成报告修订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>张3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间规划.mpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成V1.0.0.200325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +152,6 @@
   </si>
   <si>
     <t>3.5和3.7节部分内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总耗时(h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,14 +263,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -453,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -513,45 +365,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,15 +387,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -861,191 +678,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="12"/>
-    <col min="2" max="2" width="18.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="38.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1054,151 +686,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="12.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="7"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F4" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
